--- a/ぶっ飛びパンチ!仕様書.xlsx
+++ b/ぶっ飛びパンチ!仕様書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamar\Desktop\PunchGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67494672-EE23-43AA-B0A1-876A4395417D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B69C0B-497A-4027-8CCE-2A244B113EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8E3A3A3C-B0EB-432C-BEEE-7BBE70EA6B0F}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{8E3A3A3C-B0EB-432C-BEEE-7BBE70EA6B0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>元にしたゲーム：WiiSpots tropicalPunch</t>
     <rPh sb="0" eb="1">
@@ -478,22 +478,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プレイヤーのモーションを歩きからパンチに変える、盾を付ける</t>
-    <rPh sb="12" eb="13">
-      <t>アル</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>タテ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>攻撃にエフェクトを付ける、エフェクトに当たり判定のカプセルを付ける</t>
     <rPh sb="0" eb="2">
       <t>コウゲキ</t>
@@ -565,6 +549,58 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行列の勉強をしてプレイヤーの向きを進行方向に向けるようにする</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウレツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>シンコウホウコウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>..</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盾を付けてプレイヤーの前方を守るような配置にする</t>
+    <rPh sb="0" eb="1">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゼンポウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>マモ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーのモーションを歩きからパンチに変える</t>
+    <rPh sb="12" eb="13">
+      <t>アル</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -618,7 +654,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -636,8 +672,21 @@
       <top style="thin">
         <color theme="4" tint="0.39997558519241921"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,13 +694,13 @@
       <left style="thin">
         <color theme="4" tint="0.39997558519241921"/>
       </left>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
+      <right/>
       <top style="thin">
         <color theme="4" tint="0.39997558519241921"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -667,19 +716,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -998,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA3375C-6325-4673-B5D1-929344E9BF49}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1008,12 +1057,13 @@
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="69.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.375" customWidth="1"/>
+    <col min="5" max="5" width="23.125" customWidth="1"/>
+    <col min="6" max="6" width="8.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
@@ -1141,38 +1191,38 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="2" t="s">
+      <c r="A33" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A34" s="2" t="s">
+      <c r="A34" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" s="2" t="s">
+      <c r="A35" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A36" s="2" t="s">
+      <c r="A36" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A37" s="2" t="s">
+      <c r="A37" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A38" s="2" t="s">
+      <c r="A38" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1197,25 +1247,25 @@
       </c>
     </row>
     <row r="45" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A46" s="4"/>
-      <c r="B46" s="6" t="s">
+      <c r="A46" s="3"/>
+      <c r="B46" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F46" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1226,8 +1276,12 @@
       <c r="C47" s="5">
         <v>45541</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="6" t="s">
         <v>39</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="5">
+        <v>45541</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.4">
@@ -1237,150 +1291,200 @@
       <c r="C48" s="5">
         <v>45544</v>
       </c>
-      <c r="D48" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D48" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="5">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B49" s="5">
         <v>45545</v>
       </c>
       <c r="C49" s="5">
         <v>45548</v>
       </c>
-      <c r="D49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D49" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="5">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B50" s="5">
         <v>45549</v>
       </c>
       <c r="C50" s="5">
         <v>45551</v>
       </c>
-      <c r="D50" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D50" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="5">
+        <v>45548</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B51" s="5">
         <v>45552</v>
       </c>
       <c r="C51" s="5">
         <v>45555</v>
       </c>
-      <c r="D51" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D51" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B52" s="5">
         <v>45556</v>
       </c>
       <c r="C52" s="5">
         <v>45558</v>
       </c>
-      <c r="D52" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D52" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B53" s="5">
         <v>45559</v>
       </c>
       <c r="C53" s="5">
         <v>45562</v>
       </c>
-      <c r="D53" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D53" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B54" s="5">
         <v>45563</v>
       </c>
       <c r="C54" s="5">
         <v>45565</v>
       </c>
-      <c r="D54" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D54" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B55" s="5">
         <v>45566</v>
       </c>
       <c r="C55" s="5">
         <v>45569</v>
       </c>
-      <c r="D55" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D55" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B56" s="5">
         <v>45570</v>
       </c>
       <c r="C56" s="5">
         <v>45572</v>
       </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D56" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B57" s="5">
         <v>45573</v>
       </c>
       <c r="C57" s="5">
         <v>45576</v>
       </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D57" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B58" s="5">
         <v>45577</v>
       </c>
       <c r="C58" s="5">
         <v>45579</v>
       </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B59" s="5">
         <v>45580</v>
       </c>
       <c r="C59" s="5">
         <v>45583</v>
       </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B60" s="5">
         <v>45584</v>
       </c>
       <c r="C60" s="5">
         <v>45586</v>
       </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B61" s="5">
         <v>45587</v>
       </c>
       <c r="C61" s="5">
         <v>45590</v>
       </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B62" s="5">
         <v>45591</v>
       </c>
       <c r="C62" s="5">
         <v>45593</v>
       </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B63" s="5">
         <v>45594</v>
       </c>
       <c r="C63" s="5">
         <v>45596</v>
       </c>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/ぶっ飛びパンチ!仕様書.xlsx
+++ b/ぶっ飛びパンチ!仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamar\Desktop\PunchGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B69C0B-497A-4027-8CCE-2A244B113EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9653D84F-2DA7-487B-AFED-EFFC856897DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{8E3A3A3C-B0EB-432C-BEEE-7BBE70EA6B0F}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{8E3A3A3C-B0EB-432C-BEEE-7BBE70EA6B0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>元にしたゲーム：WiiSpots tropicalPunch</t>
     <rPh sb="0" eb="1">
@@ -478,48 +478,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>攻撃にエフェクトを付ける、エフェクトに当たり判定のカプセルを付ける</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>..</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CPUを描画だけして攻撃との当たり判定を作る</t>
-    <rPh sb="4" eb="6">
-      <t>ビョウガ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CPUが近くのキャラを追うようにする</t>
     <rPh sb="4" eb="5">
       <t>チカ</t>
@@ -530,19 +488,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CPUが射程範囲に入ったら攻撃するようにする</t>
-    <rPh sb="4" eb="8">
-      <t>シャテイハンイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ゲーム名：ぶっ飛びパンチ！</t>
     <rPh sb="3" eb="4">
       <t>メイ</t>
@@ -601,6 +546,61 @@
     </rPh>
     <rPh sb="20" eb="21">
       <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エフェクトに当たり判定のカプセルを付ける</t>
+    <rPh sb="6" eb="7">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃にエフェクトを付ける</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CPUが射程範囲に入ったら攻撃モーションをするようにする</t>
+    <rPh sb="4" eb="8">
+      <t>シャテイハンイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CPUを3体分表示、恐らく一度コードを整理することになる</t>
+    <rPh sb="5" eb="7">
+      <t>タイブン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オソ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セイリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -654,7 +654,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -703,13 +703,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -729,6 +740,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1047,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA3375C-6325-4673-B5D1-929344E9BF49}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1063,7 +1077,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
@@ -1292,7 +1306,7 @@
         <v>45544</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="5">
@@ -1307,7 +1321,7 @@
         <v>45548</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="5">
@@ -1322,7 +1336,7 @@
         <v>45551</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="5">
@@ -1337,10 +1351,12 @@
         <v>45555</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
+      <c r="F51" s="5">
+        <v>45551</v>
+      </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B52" s="5">
@@ -1350,7 +1366,7 @@
         <v>45558</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
@@ -1363,7 +1379,7 @@
         <v>45562</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
@@ -1375,8 +1391,8 @@
       <c r="C54" s="5">
         <v>45565</v>
       </c>
-      <c r="D54" s="6" t="s">
-        <v>45</v>
+      <c r="D54" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
@@ -1389,7 +1405,7 @@
         <v>45569</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
@@ -1402,7 +1418,7 @@
         <v>45572</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
@@ -1414,9 +1430,7 @@
       <c r="C57" s="5">
         <v>45576</v>
       </c>
-      <c r="D57" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
     </row>
@@ -1438,7 +1452,6 @@
       <c r="C59" s="5">
         <v>45583</v>
       </c>
-      <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
     </row>
@@ -1449,7 +1462,6 @@
       <c r="C60" s="5">
         <v>45586</v>
       </c>
-      <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
     </row>

--- a/ぶっ飛びパンチ!仕様書.xlsx
+++ b/ぶっ飛びパンチ!仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamar\Desktop\PunchGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9653D84F-2DA7-487B-AFED-EFFC856897DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DF2AED-568E-4319-BB25-06DACCC6CC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{8E3A3A3C-B0EB-432C-BEEE-7BBE70EA6B0F}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{8E3A3A3C-B0EB-432C-BEEE-7BBE70EA6B0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>元にしたゲーム：WiiSpots tropicalPunch</t>
     <rPh sb="0" eb="1">
@@ -550,29 +550,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エフェクトに当たり判定のカプセルを付ける</t>
-    <rPh sb="6" eb="7">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>攻撃にエフェクトを付ける</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CPUが射程範囲に入ったら攻撃モーションをするようにする</t>
     <rPh sb="4" eb="8">
       <t>シャテイハンイ</t>
@@ -601,6 +578,28 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>セイリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃に拳を付ける、エフェクトに当たり判定のカプセルを付ける</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>コブシ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -742,7 +741,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1061,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA3375C-6325-4673-B5D1-929344E9BF49}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1366,10 +1365,12 @@
         <v>45558</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
+      <c r="F52" s="5">
+        <v>45554</v>
+      </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B53" s="5">
@@ -1378,9 +1379,7 @@
       <c r="C53" s="5">
         <v>45562</v>
       </c>
-      <c r="D53" s="6" t="s">
-        <v>49</v>
-      </c>
+      <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
     </row>
@@ -1392,7 +1391,7 @@
         <v>45565</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
@@ -1418,7 +1417,7 @@
         <v>45572</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>

--- a/ぶっ飛びパンチ!仕様書.xlsx
+++ b/ぶっ飛びパンチ!仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamar\Desktop\PunchGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DF2AED-568E-4319-BB25-06DACCC6CC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B75E42-A55D-4773-B2BF-1812143A3E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{8E3A3A3C-B0EB-432C-BEEE-7BBE70EA6B0F}"/>
   </bookViews>
@@ -1060,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA3375C-6325-4673-B5D1-929344E9BF49}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1379,9 +1379,13 @@
       <c r="C53" s="5">
         <v>45562</v>
       </c>
-      <c r="D53" s="6"/>
+      <c r="D53" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
+      <c r="F53" s="5">
+        <v>45559</v>
+      </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B54" s="5">
@@ -1390,8 +1394,8 @@
       <c r="C54" s="5">
         <v>45565</v>
       </c>
-      <c r="D54" s="7" t="s">
-        <v>50</v>
+      <c r="D54" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
@@ -1404,7 +1408,7 @@
         <v>45569</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
@@ -1415,9 +1419,6 @@
       </c>
       <c r="C56" s="5">
         <v>45572</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>

--- a/ぶっ飛びパンチ!仕様書.xlsx
+++ b/ぶっ飛びパンチ!仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamar\Desktop\PunchGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B75E42-A55D-4773-B2BF-1812143A3E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E46B2E-E8A1-49A9-9120-4B3F62D5C365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{8E3A3A3C-B0EB-432C-BEEE-7BBE70EA6B0F}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{8E3A3A3C-B0EB-432C-BEEE-7BBE70EA6B0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>元にしたゲーム：WiiSpots tropicalPunch</t>
     <rPh sb="0" eb="1">
@@ -600,6 +600,34 @@
     </rPh>
     <rPh sb="26" eb="27">
       <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当たり判定の追加、攻撃をして敵に当たると吹っ飛ぶようにする</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1060,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA3375C-6325-4673-B5D1-929344E9BF49}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1394,11 +1422,13 @@
       <c r="C54" s="5">
         <v>45565</v>
       </c>
-      <c r="D54" s="6" t="s">
-        <v>43</v>
+      <c r="D54" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
+      <c r="F54" s="5">
+        <v>45565</v>
+      </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B55" s="5">
@@ -1407,9 +1437,6 @@
       <c r="C55" s="5">
         <v>45569</v>
       </c>
-      <c r="D55" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
     </row>
@@ -1420,6 +1447,9 @@
       <c r="C56" s="5">
         <v>45572</v>
       </c>
+      <c r="D56" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
     </row>
@@ -1430,7 +1460,9 @@
       <c r="C57" s="5">
         <v>45576</v>
       </c>
-      <c r="D57" s="6"/>
+      <c r="D57" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
     </row>

--- a/ぶっ飛びパンチ!仕様書.xlsx
+++ b/ぶっ飛びパンチ!仕様書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamar\Desktop\PunchGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E46B2E-E8A1-49A9-9120-4B3F62D5C365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABABD52-B22C-4F4A-A279-2EDADA6E262E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{8E3A3A3C-B0EB-432C-BEEE-7BBE70EA6B0F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8E3A3A3C-B0EB-432C-BEEE-7BBE70EA6B0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>元にしたゲーム：WiiSpots tropicalPunch</t>
     <rPh sb="0" eb="1">
@@ -478,16 +478,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CPUが近くのキャラを追うようにする</t>
-    <rPh sb="4" eb="5">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ゲーム名：ぶっ飛びパンチ！</t>
     <rPh sb="3" eb="4">
       <t>メイ</t>
@@ -550,19 +540,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CPUが射程範囲に入ったら攻撃モーションをするようにする</t>
-    <rPh sb="4" eb="8">
-      <t>シャテイハンイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CPUを3体分表示、恐らく一度コードを整理することになる</t>
     <rPh sb="5" eb="7">
       <t>タイブン</t>
@@ -628,6 +605,63 @@
     </rPh>
     <rPh sb="22" eb="23">
       <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CPU仮完成</t>
+    <rPh sb="3" eb="6">
+      <t>カリカンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル、ゲーム、リザルトのシーン遷移作成、effekseer勉強</t>
+    <rPh sb="17" eb="19">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ベンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SE追加</t>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CPU作成</t>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エフェクト作成,場外に出ないようにする</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウガイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル作成、リザルト作成</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -681,7 +715,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -730,24 +764,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -767,9 +790,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1088,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA3375C-6325-4673-B5D1-929344E9BF49}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1104,7 +1124,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
@@ -1333,7 +1353,7 @@
         <v>45544</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="5">
@@ -1348,7 +1368,7 @@
         <v>45548</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="5">
@@ -1363,7 +1383,7 @@
         <v>45551</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="5">
@@ -1378,7 +1398,7 @@
         <v>45555</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="5">
@@ -1393,7 +1413,7 @@
         <v>45558</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="5">
@@ -1407,8 +1427,8 @@
       <c r="C53" s="5">
         <v>45562</v>
       </c>
-      <c r="D53" s="7" t="s">
-        <v>50</v>
+      <c r="D53" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="5">
@@ -1422,8 +1442,8 @@
       <c r="C54" s="5">
         <v>45565</v>
       </c>
-      <c r="D54" s="7" t="s">
-        <v>52</v>
+      <c r="D54" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="5">
@@ -1437,6 +1457,7 @@
       <c r="C55" s="5">
         <v>45569</v>
       </c>
+      <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
     </row>
@@ -1448,10 +1469,12 @@
         <v>45572</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
+      <c r="F56" s="5">
+        <v>45572</v>
+      </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B57" s="5">
@@ -1461,10 +1484,12 @@
         <v>45576</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
+      <c r="F57" s="5">
+        <v>45573</v>
+      </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B58" s="5">
@@ -1473,7 +1498,9 @@
       <c r="C58" s="5">
         <v>45579</v>
       </c>
-      <c r="D58" s="6"/>
+      <c r="D58" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
     </row>
@@ -1484,6 +1511,9 @@
       <c r="C59" s="5">
         <v>45583</v>
       </c>
+      <c r="D59" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
     </row>
@@ -1494,6 +1524,9 @@
       <c r="C60" s="5">
         <v>45586</v>
       </c>
+      <c r="D60" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
     </row>
@@ -1504,7 +1537,9 @@
       <c r="C61" s="5">
         <v>45590</v>
       </c>
-      <c r="D61" s="6"/>
+      <c r="D61" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
     </row>
@@ -1515,7 +1550,9 @@
       <c r="C62" s="5">
         <v>45593</v>
       </c>
-      <c r="D62" s="6"/>
+      <c r="D62" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
     </row>
@@ -1526,7 +1563,9 @@
       <c r="C63" s="5">
         <v>45596</v>
       </c>
-      <c r="D63" s="6"/>
+      <c r="D63" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
     </row>

--- a/ぶっ飛びパンチ!仕様書.xlsx
+++ b/ぶっ飛びパンチ!仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamar\Desktop\PunchGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABABD52-B22C-4F4A-A279-2EDADA6E262E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF0119C-23B3-41FA-9874-84EB680D49B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8E3A3A3C-B0EB-432C-BEEE-7BBE70EA6B0F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>元にしたゲーム：WiiSpots tropicalPunch</t>
     <rPh sb="0" eb="1">
@@ -99,25 +99,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・攻撃をしたりしていない通常時は剣を前に構えておく</t>
-    <rPh sb="1" eb="3">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>ツウジョウジ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>カマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・攻撃が当たると1撃で吹っ飛ぶ</t>
     <rPh sb="1" eb="3">
       <t>コウゲキ</t>
@@ -137,43 +118,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・攻撃が当たるのは剣に当たっていない時(剣は前にあるためキャラの横か後ろに攻撃が当たればOK)</t>
-    <rPh sb="1" eb="3">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ヨコ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ウシ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>世界観</t>
     <rPh sb="0" eb="3">
       <t>セカイカン</t>
@@ -656,12 +600,100 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タイトル作成、リザルト作成</t>
+    <t>タイトル演出</t>
+    <rPh sb="4" eb="6">
+      <t>エンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ステージの中心をずっと見るようにカメラを周す</t>
+    <rPh sb="6" eb="8">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>マワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル作成、リザルト作成、ステージの周りを豪華にしていく</t>
     <rPh sb="4" eb="6">
       <t>サクセイ</t>
     </rPh>
     <rPh sb="11" eb="13">
       <t>サクセイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ゴウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト演出</t>
+    <rPh sb="4" eb="6">
+      <t>エンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・勝者の正面にカメラを移動して勝者を移す</t>
+    <rPh sb="1" eb="3">
+      <t>ショウシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショウシャ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ウツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・WINNERの表示</t>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・WINNERの表示の下に勝者の名前(PLAYER とかCPU1とか)を表示</t>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショウシャ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・真ん中にタイトルロゴ</t>
+    <rPh sb="1" eb="2">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1106,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA3375C-6325-4673-B5D1-929344E9BF49}">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1124,7 +1156,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
@@ -1164,17 +1196,17 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
@@ -1182,18 +1214,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
+    <row r="15" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1202,18 +1234,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
+    <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1227,28 +1259,28 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
+    <row r="26" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1277,18 +1309,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
+    <row r="38" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1297,277 +1329,302 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
+    <row r="43" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A44" s="3"/>
+      <c r="B44" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="2" t="s">
+      <c r="C44" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="D44" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B45" s="5">
+        <v>45538</v>
+      </c>
+      <c r="C45" s="5">
+        <v>45541</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="5">
+        <v>45541</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A46" s="3"/>
-      <c r="B46" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>38</v>
+      <c r="B46" s="5">
+        <v>45542</v>
+      </c>
+      <c r="C46" s="5">
+        <v>45544</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="5">
+        <v>45546</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B47" s="5">
-        <v>45538</v>
+        <v>45545</v>
       </c>
       <c r="C47" s="5">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="5">
-        <v>45541</v>
+        <v>45546</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B48" s="5">
-        <v>45542</v>
+        <v>45549</v>
       </c>
       <c r="C48" s="5">
-        <v>45544</v>
+        <v>45551</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="5">
-        <v>45546</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.4">
+        <v>45548</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B49" s="5">
-        <v>45545</v>
+        <v>45552</v>
       </c>
       <c r="C49" s="5">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="5">
-        <v>45546</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.4">
+        <v>45551</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B50" s="5">
-        <v>45549</v>
+        <v>45556</v>
       </c>
       <c r="C50" s="5">
-        <v>45551</v>
+        <v>45558</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="5">
-        <v>45548</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.4">
+        <v>45554</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B51" s="5">
-        <v>45552</v>
+        <v>45559</v>
       </c>
       <c r="C51" s="5">
-        <v>45555</v>
+        <v>45562</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>46</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="5">
-        <v>45551</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.4">
+        <v>45559</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B52" s="5">
-        <v>45556</v>
+        <v>45563</v>
       </c>
       <c r="C52" s="5">
-        <v>45558</v>
+        <v>45565</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="5">
-        <v>45554</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.4">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B53" s="5">
-        <v>45559</v>
+        <v>45566</v>
       </c>
       <c r="C53" s="5">
-        <v>45562</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>48</v>
-      </c>
+        <v>45569</v>
+      </c>
+      <c r="D53" s="6"/>
       <c r="E53" s="6"/>
-      <c r="F53" s="5">
-        <v>45559</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B54" s="5">
-        <v>45563</v>
+        <v>45570</v>
       </c>
       <c r="C54" s="5">
-        <v>45565</v>
+        <v>45572</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="5">
-        <v>45565</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.4">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B55" s="5">
-        <v>45566</v>
+        <v>45573</v>
       </c>
       <c r="C55" s="5">
-        <v>45569</v>
-      </c>
-      <c r="D55" s="6"/>
+        <v>45576</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F55" s="5">
+        <v>45573</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B56" s="5">
-        <v>45570</v>
+        <v>45577</v>
       </c>
       <c r="C56" s="5">
-        <v>45572</v>
+        <v>45579</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E56" s="6"/>
-      <c r="F56" s="5">
-        <v>45572</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B57" s="5">
-        <v>45573</v>
+        <v>45580</v>
       </c>
       <c r="C57" s="5">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E57" s="6"/>
-      <c r="F57" s="5">
-        <v>45573</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B58" s="5">
-        <v>45577</v>
+        <v>45584</v>
       </c>
       <c r="C58" s="5">
-        <v>45579</v>
+        <v>45586</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B59" s="5">
-        <v>45580</v>
+        <v>45587</v>
       </c>
       <c r="C59" s="5">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B60" s="5">
-        <v>45584</v>
+        <v>45591</v>
       </c>
       <c r="C60" s="5">
-        <v>45586</v>
+        <v>45593</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B61" s="5">
-        <v>45587</v>
+        <v>45594</v>
       </c>
       <c r="C61" s="5">
-        <v>45590</v>
+        <v>45596</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B62" s="5">
-        <v>45591</v>
-      </c>
-      <c r="C62" s="5">
-        <v>45593</v>
-      </c>
-      <c r="D62" s="6" t="s">
+    <row r="64" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B63" s="5">
-        <v>45594</v>
-      </c>
-      <c r="C63" s="5">
-        <v>45596</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/ぶっ飛びパンチ!仕様書.xlsx
+++ b/ぶっ飛びパンチ!仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamar\Desktop\PunchGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF0119C-23B3-41FA-9874-84EB680D49B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B727C906-F0C4-4BC5-9E90-962E79331636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8E3A3A3C-B0EB-432C-BEEE-7BBE70EA6B0F}"/>
   </bookViews>
@@ -1141,7 +1141,7 @@
   <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1151,7 +1151,7 @@
     <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="69.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.125" customWidth="1"/>
-    <col min="6" max="6" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
@@ -1550,7 +1550,9 @@
         <v>43</v>
       </c>
       <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
+      <c r="F58" s="5">
+        <v>45579</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B59" s="5">

--- a/ぶっ飛びパンチ!仕様書.xlsx
+++ b/ぶっ飛びパンチ!仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamar\Desktop\PunchGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B727C906-F0C4-4BC5-9E90-962E79331636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4104B4A-4C82-4374-BA3E-C760E829B5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8E3A3A3C-B0EB-432C-BEEE-7BBE70EA6B0F}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{8E3A3A3C-B0EB-432C-BEEE-7BBE70EA6B0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>元にしたゲーム：WiiSpots tropicalPunch</t>
     <rPh sb="0" eb="1">
@@ -573,13 +573,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SE追加</t>
-    <rPh sb="2" eb="4">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CPU作成</t>
     <rPh sb="3" eb="5">
       <t>サクセイ</t>
@@ -694,6 +687,53 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SE追加、ゲームが始まる前の時間を作成</t>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ゲームシステム等ベータ版くらいに完成したら、CPU改良、演出改良、次のゲームを考えつつ勉強していく</t>
+    <rPh sb="8" eb="9">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カイリョウ</t>
+    </rPh>
+    <rPh sb="29" eb="33">
+      <t>エンシュツカイリョウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ベンキョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1138,10 +1178,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA3375C-6325-4673-B5D1-929344E9BF49}">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1412,7 +1452,7 @@
         <v>45548</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B49" s="5">
         <v>45552</v>
       </c>
@@ -1427,7 +1467,7 @@
         <v>45551</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B50" s="5">
         <v>45556</v>
       </c>
@@ -1442,7 +1482,7 @@
         <v>45554</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B51" s="5">
         <v>45559</v>
       </c>
@@ -1457,7 +1497,7 @@
         <v>45559</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B52" s="5">
         <v>45563</v>
       </c>
@@ -1472,7 +1512,7 @@
         <v>45565</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B53" s="5">
         <v>45566</v>
       </c>
@@ -1483,7 +1523,7 @@
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B54" s="5">
         <v>45570</v>
       </c>
@@ -1498,7 +1538,7 @@
         <v>45572</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B55" s="5">
         <v>45573</v>
       </c>
@@ -1513,7 +1553,7 @@
         <v>45573</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B56" s="5">
         <v>45577</v>
       </c>
@@ -1521,12 +1561,12 @@
         <v>45579</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B57" s="5">
         <v>45580</v>
       </c>
@@ -1534,12 +1574,12 @@
         <v>45583</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B58" s="5">
         <v>45584</v>
       </c>
@@ -1554,7 +1594,7 @@
         <v>45579</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B59" s="5">
         <v>45587</v>
       </c>
@@ -1562,12 +1602,12 @@
         <v>45590</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B60" s="5">
         <v>45591</v>
       </c>
@@ -1575,12 +1615,12 @@
         <v>45593</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B61" s="5">
         <v>45594</v>
       </c>
@@ -1588,44 +1628,49 @@
         <v>45596</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
     </row>
-    <row r="64" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A65" t="s">
-        <v>55</v>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A69" t="s">
-        <v>58</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/ぶっ飛びパンチ!仕様書.xlsx
+++ b/ぶっ飛びパンチ!仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamar\Desktop\PunchGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4104B4A-4C82-4374-BA3E-C760E829B5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72000539-C4A8-4D27-9C7F-E8AE093754F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{8E3A3A3C-B0EB-432C-BEEE-7BBE70EA6B0F}"/>
   </bookViews>
@@ -1181,7 +1181,7 @@
   <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1631,7 +1631,9 @@
         <v>51</v>
       </c>
       <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
+      <c r="F61" s="5">
+        <v>45588</v>
+      </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B63" t="s">

--- a/ぶっ飛びパンチ!仕様書.xlsx
+++ b/ぶっ飛びパンチ!仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamar\Desktop\PunchGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72000539-C4A8-4D27-9C7F-E8AE093754F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A426EC1A-C87F-41CD-8C64-CDFA83D48B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{8E3A3A3C-B0EB-432C-BEEE-7BBE70EA6B0F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8E3A3A3C-B0EB-432C-BEEE-7BBE70EA6B0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
   <si>
     <t>元にしたゲーム：WiiSpots tropicalPunch</t>
     <rPh sb="0" eb="1">
@@ -734,6 +734,227 @@
     </rPh>
     <rPh sb="44" eb="46">
       <t>ベンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここから1か月追加</t>
+    <rPh sb="6" eb="7">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加でやること：攻撃をするときの攻撃する感、エフェクトを改良(盾のエフェクトを大きくしたり)、至近距離で攻撃した時にあたるのをどうにかする、カメラの角度、ステージの大きさを大きくする、</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カイリョウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="47" eb="51">
+      <t>シキンキョリ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>カクド</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・パンチしたときに急に拳が大きい状態で出てくるのが違和感、最初小さい状態からだんだん大きくして最大サイズになったら当たり判定を付ける</t>
+    <rPh sb="9" eb="10">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>コブシ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>イワカン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・盾に当たってから進んだら当たるのを防ぐために当たったらだんだんモデルを薄くして消す</t>
+    <rPh sb="1" eb="2">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>フセ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ウス</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>拳の出方を変える(小さいから大きくする)。当たり判定まで</t>
+    <rPh sb="0" eb="1">
+      <t>コブシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パンチ後の硬直時間を調整</t>
+    <rPh sb="3" eb="4">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>コウチョクジカン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盾に攻撃が当たった時に攻撃が止まるのではなくだんだん薄くなってきえるようにする。盾に当たった時点で当たり判定は消す</t>
+    <rPh sb="0" eb="1">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ウス</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エフェクトのクラスを作成、改良</t>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カイリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -767,7 +988,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -783,6 +1004,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,7 +1075,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -862,6 +1095,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1178,10 +1426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA3375C-6325-4673-B5D1-929344E9BF49}">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1189,7 +1437,7 @@
     <col min="1" max="1" width="8.375" customWidth="1"/>
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="69.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="137.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.125" customWidth="1"/>
     <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
@@ -1452,7 +1700,7 @@
         <v>45548</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B49" s="5">
         <v>45552</v>
       </c>
@@ -1467,7 +1715,7 @@
         <v>45551</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B50" s="5">
         <v>45556</v>
       </c>
@@ -1482,7 +1730,7 @@
         <v>45554</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B51" s="5">
         <v>45559</v>
       </c>
@@ -1497,7 +1745,7 @@
         <v>45559</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B52" s="5">
         <v>45563</v>
       </c>
@@ -1512,7 +1760,7 @@
         <v>45565</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B53" s="5">
         <v>45566</v>
       </c>
@@ -1523,7 +1771,7 @@
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B54" s="5">
         <v>45570</v>
       </c>
@@ -1538,7 +1786,7 @@
         <v>45572</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B55" s="5">
         <v>45573</v>
       </c>
@@ -1553,7 +1801,7 @@
         <v>45573</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B56" s="5">
         <v>45577</v>
       </c>
@@ -1566,7 +1814,7 @@
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B57" s="5">
         <v>45580</v>
       </c>
@@ -1579,7 +1827,7 @@
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B58" s="5">
         <v>45584</v>
       </c>
@@ -1594,7 +1842,7 @@
         <v>45579</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B59" s="5">
         <v>45587</v>
       </c>
@@ -1607,7 +1855,7 @@
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B60" s="5">
         <v>45591</v>
       </c>
@@ -1620,7 +1868,7 @@
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B61" s="5">
         <v>45594</v>
       </c>
@@ -1635,43 +1883,220 @@
         <v>45588</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B63" t="s">
+    <row r="62" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B62" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="F62" s="8"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B63" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="10"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E64" s="11"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E65" s="11"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B67" s="5">
+        <v>45596</v>
+      </c>
+      <c r="C67" s="5">
+        <v>45597</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E67" s="6"/>
+      <c r="F67" s="5"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B68" s="5">
+        <v>45598</v>
+      </c>
+      <c r="C68" s="5">
+        <v>45600</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="6"/>
+      <c r="F68" s="5"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B69" s="5">
+        <v>45601</v>
+      </c>
+      <c r="C69" s="5">
+        <v>45604</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E69" s="6"/>
+      <c r="F69" s="5"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B70" s="5">
+        <v>45605</v>
+      </c>
+      <c r="C70" s="5">
+        <v>45607</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E70" s="6"/>
+      <c r="F70" s="5"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B71" s="5">
+        <v>45608</v>
+      </c>
+      <c r="C71" s="5">
+        <v>45611</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E71" s="6"/>
+      <c r="F71" s="5">
+        <v>45591</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B72" s="5">
+        <v>45612</v>
+      </c>
+      <c r="C72" s="5">
+        <v>45614</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B73" s="5">
+        <v>45615</v>
+      </c>
+      <c r="C73" s="5">
+        <v>45618</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B74" s="5">
+        <v>45619</v>
+      </c>
+      <c r="C74" s="5">
+        <v>45621</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B75" s="5">
+        <v>45622</v>
+      </c>
+      <c r="C75" s="5">
+        <v>45626</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B77" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:1" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="1" t="s">
+    <row r="79" spans="1:11" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A66" t="s">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A67" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="1" t="s">
+    <row r="83" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A70" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A71" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A72" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
         <v>59</v>
       </c>
     </row>

--- a/ぶっ飛びパンチ!仕様書.xlsx
+++ b/ぶっ飛びパンチ!仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamar\Desktop\PunchGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A426EC1A-C87F-41CD-8C64-CDFA83D48B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC9A3B7-9B0C-48B0-87D1-69C1457D3FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8E3A3A3C-B0EB-432C-BEEE-7BBE70EA6B0F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
   <si>
     <t>元にしたゲーム：WiiSpots tropicalPunch</t>
     <rPh sb="0" eb="1">
@@ -837,34 +837,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・盾に当たってから進んだら当たるのを防ぐために当たったらだんだんモデルを薄くして消す</t>
-    <rPh sb="1" eb="2">
-      <t>タテ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>フセ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ウス</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>ケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>拳の出方を変える(小さいから大きくする)。当たり判定まで</t>
     <rPh sb="0" eb="1">
       <t>コブシ</t>
@@ -955,6 +927,53 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>カイリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・盾に当たってから進んだら当たるのを防ぐために当たったらだんだんモデルを小さくして消す</t>
+    <rPh sb="1" eb="2">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>フセ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>至近距離で攻撃した時の問題を解決</t>
+    <rPh sb="0" eb="4">
+      <t>シキンキョリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カイケツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1428,8 +1447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA3375C-6325-4673-B5D1-929344E9BF49}">
   <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1922,7 +1941,7 @@
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="D65" s="11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E65" s="11"/>
       <c r="F65" s="10"/>
@@ -1945,7 +1964,7 @@
         <v>45597</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="5"/>
@@ -1958,7 +1977,7 @@
         <v>45600</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="5"/>
@@ -1984,7 +2003,7 @@
         <v>45607</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="5"/>
@@ -2012,10 +2031,12 @@
         <v>45614</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
+      <c r="F72" s="5">
+        <v>45593</v>
+      </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B73" s="5">
@@ -2025,7 +2046,7 @@
         <v>45618</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>

--- a/ぶっ飛びパンチ!仕様書.xlsx
+++ b/ぶっ飛びパンチ!仕様書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamar\Desktop\PunchGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC9A3B7-9B0C-48B0-87D1-69C1457D3FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6082382-A44A-49FE-AFBC-547E3DF87687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8E3A3A3C-B0EB-432C-BEEE-7BBE70EA6B0F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
   <si>
     <t>元にしたゲーム：WiiSpots tropicalPunch</t>
     <rPh sb="0" eb="1">
@@ -865,19 +865,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パンチ後の硬直時間を調整</t>
-    <rPh sb="3" eb="4">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>コウチョクジカン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>チョウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>盾に攻撃が当たった時に攻撃が止まるのではなくだんだん薄くなってきえるようにする。盾に当たった時点で当たり判定は消す</t>
     <rPh sb="0" eb="1">
       <t>タテ</t>
@@ -921,16 +908,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エフェクトのクラスを作成、改良</t>
-    <rPh sb="10" eb="12">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カイリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・盾に当たってから進んだら当たるのを防ぐために当たったらだんだんモデルを小さくして消す</t>
     <rPh sb="1" eb="2">
       <t>タテ</t>
@@ -959,21 +936,70 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>至近距離で攻撃した時の問題を解決</t>
-    <rPh sb="0" eb="4">
-      <t>シキンキョリ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>モンダイ</t>
+    <t>ステージの板をブレンダーで一つのモデルとして作成する、ステージの広さを調整、それに伴ってカメラ調整</t>
+    <rPh sb="5" eb="6">
+      <t>イタ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>トモナ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FPS固定</t>
+    <rPh sb="3" eb="5">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CPUを改良</t>
+    <rPh sb="4" eb="6">
+      <t>カイリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他の調整や改良</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加する予定だったものは一応終了</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イチオウ</t>
     </rPh>
     <rPh sb="14" eb="16">
-      <t>カイケツ</t>
+      <t>シュウリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1447,8 +1473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA3375C-6325-4673-B5D1-929344E9BF49}">
   <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J70" sqref="J70"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1457,7 +1483,7 @@
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="137.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.125" customWidth="1"/>
+    <col min="5" max="5" width="33.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1941,7 +1967,7 @@
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="D65" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E65" s="11"/>
       <c r="F65" s="10"/>
@@ -1977,7 +2003,7 @@
         <v>45600</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="5"/>
@@ -1992,8 +2018,12 @@
       <c r="D69" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E69" s="6"/>
-      <c r="F69" s="5"/>
+      <c r="E69" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F69" s="5">
+        <v>45604</v>
+      </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B70" s="5">
@@ -2003,7 +2033,7 @@
         <v>45607</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="5"/>
@@ -2016,12 +2046,10 @@
         <v>45611</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="E71" s="6"/>
-      <c r="F71" s="5">
-        <v>45591</v>
-      </c>
+      <c r="F71" s="5"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B72" s="5">
@@ -2031,12 +2059,10 @@
         <v>45614</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E72" s="6"/>
-      <c r="F72" s="5">
-        <v>45593</v>
-      </c>
+      <c r="F72" s="5"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B73" s="5">
@@ -2046,7 +2072,7 @@
         <v>45618</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
@@ -2059,7 +2085,7 @@
         <v>45621</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>

--- a/ぶっ飛びパンチ!仕様書.xlsx
+++ b/ぶっ飛びパンチ!仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamar\Desktop\PunchGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6082382-A44A-49FE-AFBC-547E3DF87687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26107586-A272-4B48-99AD-B02C311EF31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8E3A3A3C-B0EB-432C-BEEE-7BBE70EA6B0F}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{8E3A3A3C-B0EB-432C-BEEE-7BBE70EA6B0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1473,8 +1473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA3375C-6325-4673-B5D1-929344E9BF49}">
   <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2036,7 +2036,9 @@
         <v>69</v>
       </c>
       <c r="E70" s="6"/>
-      <c r="F70" s="5"/>
+      <c r="F70" s="5">
+        <v>45607</v>
+      </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B71" s="5">

--- a/ぶっ飛びパンチ!仕様書.xlsx
+++ b/ぶっ飛びパンチ!仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamar\Desktop\PunchGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26107586-A272-4B48-99AD-B02C311EF31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B16BB3-F102-4589-9AB2-605632DE2A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{8E3A3A3C-B0EB-432C-BEEE-7BBE70EA6B0F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8E3A3A3C-B0EB-432C-BEEE-7BBE70EA6B0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="82">
   <si>
     <t>元にしたゲーム：WiiSpots tropicalPunch</t>
     <rPh sb="0" eb="1">
@@ -1000,6 +1000,119 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CPU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラを追うorランダムな場所に移動</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラを追う・・・自分以外、脱落したキャラ以外を一人ランダムで選んでそのキャラの後ろを狙って動き、目標キャラの方向に向いて攻撃をする・・・200フレーム</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ダツラク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒトリ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ウシ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ネラ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランダムな場所に移動・・・ステージ内のランダムな場所に向かって移動・・・100フレーム</t>
+    <rPh sb="5" eb="7">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[1]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[2]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[3]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動フレームが指定フレームに達したら[1]に戻る</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タッ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>モド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1471,10 +1584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA3375C-6325-4673-B5D1-929344E9BF49}">
-  <dimension ref="A1:K86"/>
+  <dimension ref="A1:K92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2124,29 +2237,63 @@
         <v>54</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>78</v>
+      </c>
+      <c r="B89" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>79</v>
+      </c>
+      <c r="B90" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B91" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>80</v>
+      </c>
+      <c r="B92" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/ぶっ飛びパンチ!仕様書.xlsx
+++ b/ぶっ飛びパンチ!仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamar\Desktop\PunchGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B16BB3-F102-4589-9AB2-605632DE2A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC44A17A-9C0F-4388-B219-E24666E36400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8E3A3A3C-B0EB-432C-BEEE-7BBE70EA6B0F}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{8E3A3A3C-B0EB-432C-BEEE-7BBE70EA6B0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -975,19 +975,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>その他の調整や改良</t>
-    <rPh sb="2" eb="3">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>チョウセイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カイリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>追加する予定だったものは一応終了</t>
     <rPh sb="0" eb="2">
       <t>ツイカ</t>
@@ -1113,6 +1100,34 @@
     </rPh>
     <rPh sb="22" eb="23">
       <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他の調整や改良、ステージ周りの演出の追加とUIを整えて分かりやすくする</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイリョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>トトノ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ワ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1586,8 +1601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA3375C-6325-4673-B5D1-929344E9BF49}">
   <dimension ref="A1:K92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2132,7 +2147,7 @@
         <v>43</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F69" s="5">
         <v>45604</v>
@@ -2164,7 +2179,9 @@
         <v>70</v>
       </c>
       <c r="E71" s="6"/>
-      <c r="F71" s="5"/>
+      <c r="F71" s="5">
+        <v>45609</v>
+      </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B72" s="5">
@@ -2200,7 +2217,7 @@
         <v>45621</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
@@ -2264,36 +2281,36 @@
     </row>
     <row r="88" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B89" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B90" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B91" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
+        <v>79</v>
+      </c>
+      <c r="B92" t="s">
         <v>80</v>
-      </c>
-      <c r="B92" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/ぶっ飛びパンチ!仕様書.xlsx
+++ b/ぶっ飛びパンチ!仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamar\Desktop\PunchGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC44A17A-9C0F-4388-B219-E24666E36400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89E6861-C135-41D8-A586-C232D8E53DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{8E3A3A3C-B0EB-432C-BEEE-7BBE70EA6B0F}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{8E3A3A3C-B0EB-432C-BEEE-7BBE70EA6B0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
   <si>
     <t>元にしたゲーム：WiiSpots tropicalPunch</t>
     <rPh sb="0" eb="1">
@@ -1104,30 +1104,44 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>その他の調整や改良、ステージ周りの演出の追加とUIを整えて分かりやすくする</t>
-    <rPh sb="2" eb="3">
-      <t>タ</t>
+    <t>一時停止作成、名前表示の変更</t>
+    <rPh sb="0" eb="4">
+      <t>イチジテイシ</t>
     </rPh>
     <rPh sb="4" eb="6">
-      <t>チョウセイ</t>
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決着時の演出を改良</t>
+    <rPh sb="0" eb="3">
+      <t>ケッチャクジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>エンシュツ</t>
     </rPh>
     <rPh sb="7" eb="9">
       <t>カイリョウ</t>
     </rPh>
-    <rPh sb="14" eb="15">
-      <t>マワ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>エンシュツ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>トトノ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ワ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調整、改良</t>
+    <rPh sb="0" eb="2">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1601,8 +1615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA3375C-6325-4673-B5D1-929344E9BF49}">
   <dimension ref="A1:K92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2204,10 +2218,12 @@
         <v>45618</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
+      <c r="F73" s="5">
+        <v>45618</v>
+      </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B74" s="5">
@@ -2217,7 +2233,7 @@
         <v>45621</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
@@ -2230,7 +2246,7 @@
         <v>45626</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
